--- a/admin/data.xlsx
+++ b/admin/data.xlsx
@@ -1,10 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <!-- Generated by Aspose.Words for .NET 24.5.0 -->
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itc\tinnhannhanh\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40348934-E8CA-4F8C-A443-4C99A38C37E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -57,7 +68,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -83,7 +94,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -117,7 +128,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -150,7 +161,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -171,7 +182,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -197,7 +208,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -218,7 +229,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -257,7 +268,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -283,7 +294,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -305,7 +316,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -330,7 +341,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -351,7 +362,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -380,7 +391,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -401,7 +412,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -426,7 +437,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -467,7 +478,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -488,7 +499,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -509,7 +520,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -533,7 +544,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -554,7 +565,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -575,7 +586,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -600,7 +611,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -634,7 +645,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -668,7 +679,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -702,7 +713,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -725,7 +736,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -750,7 +761,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -779,7 +790,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -790,9 +801,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="0000ff"/>
-        <u val="single"/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -801,7 +812,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -823,7 +834,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -846,7 +857,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -867,7 +878,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -911,7 +922,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -936,7 +947,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -946,7 +957,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -955,7 +966,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -965,7 +976,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -974,7 +985,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -984,7 +995,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -993,7 +1004,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1003,7 +1014,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1012,7 +1023,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1022,7 +1033,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1031,7 +1042,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1041,7 +1052,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1050,7 +1061,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1060,7 +1071,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1069,7 +1080,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1091,7 +1102,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1112,7 +1123,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1137,7 +1148,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1158,7 +1169,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1218,7 +1229,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1243,7 +1254,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1290,7 +1301,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1300,7 +1311,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1309,7 +1320,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1319,7 +1330,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1328,7 +1339,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1338,7 +1349,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1347,7 +1358,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1357,7 +1368,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1366,7 +1377,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1376,7 +1387,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1385,7 +1396,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1407,7 +1418,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1424,8 +1435,8 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
-        <u val="single"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1433,8 +1444,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <u val="single"/>
+        <u/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1442,8 +1453,8 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
-        <u val="single"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1451,8 +1462,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <u val="single"/>
+        <u/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1461,7 +1472,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1487,7 +1498,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1496,7 +1507,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1506,7 +1517,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1515,7 +1526,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1525,7 +1536,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1534,7 +1545,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1544,7 +1555,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1553,7 +1564,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1563,7 +1574,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1572,7 +1583,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1594,7 +1605,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1629,7 +1640,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1654,7 +1665,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1676,7 +1687,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1711,7 +1722,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1732,7 +1743,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1773,7 +1784,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1798,7 +1809,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1833,7 +1844,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1861,7 +1872,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1896,7 +1907,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1931,7 +1942,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1952,7 +1963,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1986,7 +1997,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2008,7 +2019,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2029,7 +2040,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2120,7 +2131,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2142,7 +2153,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2163,7 +2174,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2188,7 +2199,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2222,7 +2233,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2243,7 +2254,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2277,7 +2288,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2301,7 +2312,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2318,7 +2329,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2328,7 +2339,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2353,7 +2364,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2387,7 +2398,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2396,9 +2407,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="0000ff"/>
-        <u val="single"/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2407,7 +2418,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2433,7 +2444,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2466,7 +2477,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2474,9 +2485,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="0000ff"/>
-        <u val="single"/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2485,7 +2496,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2506,7 +2517,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2527,7 +2538,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2548,7 +2559,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2569,7 +2580,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2605,7 +2616,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2638,7 +2649,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2671,7 +2682,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="1c1e21"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2694,8 +2705,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2714,7 +2725,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="1c1e21"/>
+      <color rgb="FF1C1E21"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2725,16 +2736,48 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="1c1e21"/>
+      <color rgb="FF1C1E21"/>
       <name val="Symbol"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
+      <vertAlign val="superscript"/>
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <vertAlign val="superscript"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2746,28 +2789,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="e7e6e6"/>
+        <fgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
-      <vertical/>
-      <horizontal/>
     </border>
     <border>
-      <start style="thin"/>
-      <end style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
-      <vertical/>
-      <horizontal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -2775,783 +2822,1114 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.3438"/>
-    <col min="2" max="2" width="12.9631"/>
-    <col min="3" max="3" width="76.7642"/>
+    <col min="1" max="1" width="8.33203125"/>
+    <col min="2" max="2" width="13"/>
+    <col min="3" max="3" width="76.77734375"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="s" s="1">
+    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="312" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="156" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="6">
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s" s="6">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="6">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="6">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s" s="6">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="6">
+      <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s" s="6">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s" s="6">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s" s="6">
+      <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" t="s" s="3">
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s" s="6">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s" s="6">
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s" s="6">
+      <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" t="s" s="3">
+      <c r="B28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s" s="6">
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" t="s" s="3">
+      <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" t="s" s="6">
+      <c r="C29" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" t="s" s="3">
+      <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s" s="6">
+      <c r="C30" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" t="s" s="3">
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="s" s="6">
+      <c r="C31" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" t="s" s="3">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s" s="5">
+      <c r="C32" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" t="s" s="3">
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s" s="6">
+      <c r="C33" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C34" t="s" s="6">
+      <c r="C34" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" t="s" s="3">
+      <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s" s="6">
+      <c r="C35" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" t="s" s="3">
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s" s="7">
+      <c r="C36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" t="s" s="3">
+      <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="s" s="6">
+      <c r="C37" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" t="s" s="3">
+      <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s" s="6">
+      <c r="C38" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s" s="6">
+      <c r="C39" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" t="s" s="8">
+      <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" t="s" s="3">
+      <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" t="s" s="6">
+      <c r="C41" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" t="s" s="3">
+      <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C43" t="s" s="6">
+      <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s" s="7">
+      <c r="C44" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C45" t="s" s="6">
+      <c r="C45" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="156" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" t="s" s="3">
+      <c r="B46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C46" t="s" s="6">
+      <c r="C46" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" t="s" s="3">
+      <c r="B47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C47" t="s" s="9">
+      <c r="C47" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" t="s" s="3">
+      <c r="B48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C48" t="s" s="6">
+      <c r="C48" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" t="s" s="3">
+      <c r="B49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C49" t="s" s="6">
+      <c r="C49" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" t="s" s="3">
+      <c r="B50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C50" t="s" s="6">
+      <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" t="s" s="3">
+      <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C51" t="s" s="6">
+      <c r="C51" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" t="s" s="3">
+      <c r="B52" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C52" t="s" s="6">
+      <c r="C52" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" t="s" s="3">
+      <c r="B53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C53" t="s" s="6">
+      <c r="C53" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" t="s" s="3">
+      <c r="B54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" t="s" s="3">
+      <c r="B55" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C55" t="s" s="6">
+      <c r="C55" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" t="s" s="3">
+      <c r="B56" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C56" t="s" s="6">
+      <c r="C56" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" t="s" s="3">
+      <c r="B57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C57" t="s" s="6">
+      <c r="C57" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" t="s" s="3">
+      <c r="B58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C58" t="s" s="6">
+      <c r="C58" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" t="s" s="3">
+      <c r="B59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C59" t="s" s="6">
+      <c r="C59" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" t="s" s="3">
+      <c r="B60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C60" t="s" s="6">
+      <c r="C60" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" t="s" s="3">
+      <c r="B61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C61" t="s" s="6">
+      <c r="C61" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" t="s" s="3">
+      <c r="B62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C62" t="s" s="6">
+      <c r="C62" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" t="s" s="3">
+      <c r="B63" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C63" t="s" s="6">
+      <c r="C63" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" t="s" s="8">
+      <c r="B64" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" t="s" s="3">
+      <c r="B65" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C65" t="s" s="6">
+      <c r="C65" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" t="s" s="8">
+      <c r="B66" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" t="s" s="3">
+      <c r="B67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C67" t="s" s="6">
+      <c r="C67" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" t="s" s="3">
+      <c r="B68" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C68" t="s" s="6">
+      <c r="C68" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" t="s" s="3">
+      <c r="B69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C69" t="s" s="6">
+      <c r="C69" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" t="s" s="3">
+      <c r="B70" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C70" t="s" s="6">
+      <c r="C70" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" t="s" s="8">
+      <c r="B71" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" t="s" s="3">
+      <c r="B72" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C72" t="s" s="6">
+      <c r="C72" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" t="s" s="3">
+      <c r="B73" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C73" t="s" s="6">
+      <c r="C73" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" t="s" s="3">
+      <c r="B74" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C74" t="s" s="6">
+      <c r="C74" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
-      <c r="B75" t="s" s="3">
+      <c r="B75" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C75" t="s" s="6">
+      <c r="C75" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" t="s" s="8">
+      <c r="B76" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
-      <c r="B77" t="s" s="3">
+      <c r="B77" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
-      <c r="B78" t="s" s="8">
+      <c r="B78" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C78" t="s" s="6">
+      <c r="C78" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" t="s" s="3">
+      <c r="B79" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" t="s" s="3">
+      <c r="B80" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" t="s" s="3">
+      <c r="B81" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" t="s" s="3">
+      <c r="B82" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" t="s" s="3">
+      <c r="B83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" s="4" t="s">
         <v>162</v>
       </c>
     </row>
